--- a/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\IdeaProjects\OliveiraGant\ganttproject\Project\Phase 2\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhertz/Documents/subjects/SE/ganttproject/Project/Phase 2/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B666428-32D5-4740-BE1B-021F70BB1AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B9550F-C00A-D446-8FB4-F1BA419FD2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Todo</t>
   </si>
@@ -39,19 +50,16 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Sugerir 2 Features (Francisco)</t>
-  </si>
-  <si>
-    <t>Sugerir 2 Features (Iago)</t>
-  </si>
-  <si>
-    <t>Sugerir 2 Features (James)</t>
-  </si>
-  <si>
-    <t>Sugerir 2 Features (Joao)</t>
-  </si>
-  <si>
-    <t>Sugerir 2 Features (Ricardo)</t>
+    <t>Implement feature 1 (Ricardo)</t>
+  </si>
+  <si>
+    <t>Implement feature 2 (James, João, Francisco, Iago)</t>
+  </si>
+  <si>
+    <t>Upload sprints to github (Todo mundo)</t>
+  </si>
+  <si>
+    <t>Take metrics (João)</t>
   </si>
 </sst>
 </file>
@@ -67,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,12 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,21 +412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="57.5" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,29 +440,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhertz/Documents/subjects/SE/ganttproject/Project/Phase 2/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B9550F-C00A-D446-8FB4-F1BA419FD2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187CE123-EF78-534D-8133-FCE62E17FFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,10 +56,10 @@
     <t>Implement feature 2 (James, João, Francisco, Iago)</t>
   </si>
   <si>
-    <t>Upload sprints to github (Todo mundo)</t>
-  </si>
-  <si>
-    <t>Take metrics (João)</t>
+    <t>Upload sprints to github (Todo agente)</t>
+  </si>
+  <si>
+    <t>Take metrics (Todo agente)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhertz/Documents/subjects/SE/ganttproject/Project/Phase 2/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187CE123-EF78-534D-8133-FCE62E17FFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A17DA7-9A4D-1241-8A9E-686CF5B23A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Todo</t>
   </si>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -441,80 +441,34 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
